--- a/กราฟ.xlsx
+++ b/กราฟ.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaiyaphonp\Desktop\IS_work_use\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C5D5F3-BCCF-40C3-BEBC-10B058B7E2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB492CE-824E-4B37-8830-529A4428A794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1335" windowWidth="29040" windowHeight="15720" xr2:uid="{8A74C651-13DA-4C3C-9B6A-6D377C8A5538}"/>
+    <workbookView xWindow="-28920" yWindow="1335" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8A74C651-13DA-4C3C-9B6A-6D377C8A5538}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$2:$G$13</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>Product Type</t>
   </si>
@@ -88,12 +90,120 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>01. Housing</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q1</t>
+  </si>
+  <si>
+    <t>2020Q2</t>
+  </si>
+  <si>
+    <t>2020Q3</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2018Q1</t>
+  </si>
+  <si>
+    <t>2018Q2</t>
+  </si>
+  <si>
+    <t>2018Q3</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>%NPL</t>
+  </si>
+  <si>
+    <t>%TDR</t>
+  </si>
+  <si>
+    <t>แก้ข้อมูล</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +214,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,11 +247,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,28 +294,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="th-TH" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="th-TH" b="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
-                <a:effectLst/>
               </a:rPr>
               <a:t>สัดส่วนของยอดคงค้างสะสมแยกตามประเภทสินเชื่อ</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -218,16 +334,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -307,6 +420,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-36F1-4259-B554-83EDE6E39054}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -553,22 +671,20 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -724,16 +840,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -771,7 +887,1810 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100">
+          <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+          <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>การเปิดบัญชีแยกตามประเภทสินเชื่อ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>01. Housing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2019Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2ED9-4498-9837-2B70BEF1B2B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>02. Auto Loan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2019Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2ED9-4498-9837-2B70BEF1B2B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>03. Credit Card</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2019Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2ED9-4498-9837-2B70BEF1B2B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>04. Personal Loan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2019Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>131.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>133.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>143.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>174.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2ED9-4498-9837-2B70BEF1B2B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="902384543"/>
+        <c:axId val="902383103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="902384543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902383103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="902383103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902384543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+          <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>ข้อมูลสัดส่วนหนี้เสียและสัดส่วนการปรับโครงสร้างหนี้ของสินเชื่อส่วนบุคคล</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%NPL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2017Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022Q2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022Q3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022Q4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023Q1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023Q2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023Q3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2023Q4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2024Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-120F-460E-8963-062A8B6FE1CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%TDR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2017Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022Q2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022Q3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022Q4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023Q1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023Q2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023Q3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2023Q4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2024Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-120F-460E-8963-062A8B6FE1CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="693334287"/>
+        <c:axId val="693337167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="693334287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693337167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693337167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693334287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+          <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -824,6 +2743,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -1311,6 +3310,1038 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1364,6 +4395,161 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA190B1-A0B6-CC9F-BAD4-CE4ED45C81BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>153987</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808BDBC2-A257-CCC0-BA42-10864BC1FD1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A9A0BF-BA80-BB56-FBC7-4E26473468F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4568825" y="1320800"/>
+          <a:ext cx="374650" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" kern="1200">
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+            </a:rPr>
+            <a:t>ล้าน</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200">
+            <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+            <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B165CE-BF02-FBEA-C24B-EC4A1FDF130C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,8 +4889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634285CB-DC05-4827-B863-E97C60A49463}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1950,4 +5136,760 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC349831-174A-49DC-9EE8-04643FC86291}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>40.9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>56.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>38.9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>71.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>39.6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E5" s="4">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4">
+        <v>59.9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E7" s="4">
+        <v>232.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C8" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>50.9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>157.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>50.6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D10" s="4">
+        <v>48.4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>149.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C11" s="4">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D11" s="4">
+        <v>52.3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>183.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C12" s="4">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45.8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>111.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>42.7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>47.3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>131.30000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>37.6</v>
+      </c>
+      <c r="D14" s="4">
+        <v>48.4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C15" s="4">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D15" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="E15" s="4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D16" s="4">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="C17" s="4">
+        <v>35.1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4">
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>34.9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>48.6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>34.4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>46.9</v>
+      </c>
+      <c r="E19" s="4">
+        <v>150.19999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>51.2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>147.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="C21" s="4">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D21" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>143.69999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
+        <v>27.9</v>
+      </c>
+      <c r="D22" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>25.2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>54.2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>174.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44930ECF-C9D2-4E6D-8371-6CDC328EB7E6}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/กราฟ.xlsx
+++ b/กราฟ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaiyaphonp\Desktop\IS_work_use\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB492CE-824E-4B37-8830-529A4428A794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EC8D2A-82F1-4481-A879-48EC01DDC93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1335" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8A74C651-13DA-4C3C-9B6A-6D377C8A5538}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{8A74C651-13DA-4C3C-9B6A-6D377C8A5538}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Product Type</t>
   </si>
@@ -200,9 +200,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,8 +250,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1995,12 +1992,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1260" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2008,16 +2002,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="th-TH"/>
+              <a:rPr lang="th-TH">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>ข้อมูลสัดส่วนหนี้เสียและสัดส่วนการปรับโครงสร้างหนี้ของสินเชื่อส่วนบุคคล</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2028,12 +2032,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1260" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
               <a:ea typeface="+mn-ea"/>
@@ -2067,7 +2068,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2175,94 +2176,94 @@
             <c:numRef>
               <c:f>Sheet3!$B$2:$B$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1000000000000002E-2</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>9.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.04</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>10.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>10.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>10.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.04</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1000000000000002E-2</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1000000000000002E-2</c:v>
+                  <c:v>9.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.04</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>10.299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>10.299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>10.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.04</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,7 +2292,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2399,94 +2400,94 @@
             <c:numRef>
               <c:f>Sheet3!$C$2:$C$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>8.2000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>11.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>13.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.06</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.3E-2</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6999999999999999E-2</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1999999999999998E-2</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>13.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.05</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>11.799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3999999999999997E-2</c:v>
+                  <c:v>11.700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>11.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.0999999999999997E-2</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,6 +2500,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2539,7 +2541,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2582,7 +2584,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2598,7 +2600,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2640,7 +2642,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2687,7 +2689,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1050">
           <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
           <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
         </a:defRPr>
@@ -4456,15 +4458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
+      <xdr:colOff>288924</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>177799</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4479,8 +4481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4568825" y="1320800"/>
-          <a:ext cx="374650" cy="200025"/>
+          <a:off x="4556124" y="1400175"/>
+          <a:ext cx="498475" cy="168275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4515,7 +4517,7 @@
               <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
               <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
             </a:rPr>
-            <a:t>ล้าน</a:t>
+            <a:t>ล้านคนบาท</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" kern="1200">
             <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
@@ -4565,6 +4567,75 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51917E72-140B-44F6-9312-358C1B5608D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="2082800"/>
+          <a:ext cx="374650" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200">
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+            </a:rPr>
+            <a:t>%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5142,8 +5213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC349831-174A-49DC-9EE8-04643FC86291}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5547,10 +5618,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44930ECF-C9D2-4E6D-8371-6CDC328EB7E6}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5565,7 +5636,7 @@
       <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5573,319 +5644,570 @@
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2.8000000000000001E-2</v>
+      <c r="B2" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="D2">
+        <f>B2*100</f>
+        <v>830.00000000000011</v>
+      </c>
+      <c r="E2">
+        <f>C2*100</f>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="5">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2.9000000000000001E-2</v>
+      <c r="B3" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:E31" si="0">B3*100</f>
+        <v>910</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>820.00000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="5">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3.5999999999999997E-2</v>
+      <c r="B4" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>940</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="5">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3.6999999999999998E-2</v>
+      <c r="B5" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>860</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="5">
-        <v>3.9E-2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4.7E-2</v>
+      <c r="B6" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1090</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4.8000000000000001E-2</v>
+      <c r="B7" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C7" s="6">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>869.99999999999989</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5.8000000000000003E-2</v>
+      <c r="B8" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C8" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>869.99999999999989</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5.7000000000000002E-2</v>
+      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1290</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5.7000000000000002E-2</v>
+      <c r="B10" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>860</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1320</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5.8000000000000003E-2</v>
+      <c r="B11" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C11" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>930.00000000000011</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1330</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.06</v>
+      <c r="B12" s="6">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="C12" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1010.0000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1350</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
-        <v>4.7E-2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>6.3E-2</v>
+      <c r="B13" s="6">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1010.0000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1380</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>7.6999999999999999E-2</v>
+      <c r="B14" s="6">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="C14" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1010.0000000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1420</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>5.1999999999999998E-2</v>
+      <c r="B15" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1330</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="C16" s="5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C17" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>869.99999999999989</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5">
-        <v>3.9E-2</v>
-      </c>
-      <c r="C18" s="5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C18" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>869.99999999999989</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="C20" s="5">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="C20" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>940</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="C21" s="6">
+        <v>11.799999999999999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5">
-        <v>3.9E-2</v>
-      </c>
-      <c r="C22" s="5">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="C22" s="6">
+        <v>11.700000000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C23" s="5">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="6">
+        <v>10.299999999999999</v>
+      </c>
+      <c r="C23" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1030</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5">
-        <v>3.9E-2</v>
-      </c>
-      <c r="C24" s="5">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="6">
+        <v>10.299999999999999</v>
+      </c>
+      <c r="C24" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1030</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C25" s="6">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>919.99999999999989</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C26" s="5">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>930.00000000000011</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C27" s="5">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="6">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="5">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C28" s="5">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="6">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="C28" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1010.0000000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C29" s="5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="6">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="C30" s="5">
-        <v>5.8000000000000003E-2</v>
+      <c r="B30" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C30" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1019.9999999999999</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="C31" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
     </row>
   </sheetData>

--- a/กราฟ.xlsx
+++ b/กราฟ.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaiyaphonp\Desktop\IS_work_use\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\เดสก์ท็อป\TU MBE\IS_MBE\IS_ปัจจัยที่มีอิทธิพลต่อการผิดนัดชำระ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EC8D2A-82F1-4481-A879-48EC01DDC93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0643ECDF-8A48-4A9A-A7FD-FA6E632D7D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{8A74C651-13DA-4C3C-9B6A-6D377C8A5538}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8A74C651-13DA-4C3C-9B6A-6D377C8A5538}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$2:$G$13</definedName>
@@ -32,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Product Type</t>
   </si>
@@ -194,6 +193,21 @@
   </si>
   <si>
     <t>แก้ข้อมูล</t>
+  </si>
+  <si>
+    <t>ปี</t>
+  </si>
+  <si>
+    <t>เกิดจากการโอนหนี้ด้วยคุณภาพไปบริษัท บริหารสินทรัพย์ ธนาคารอิสลามแห่งประเทศไทยจำกัด</t>
+  </si>
+  <si>
+    <t>หนี้ที่ไม่ก่อให้เกิดรายได้</t>
+  </si>
+  <si>
+    <t>สินเชื่อรวมทั้งหมด</t>
+  </si>
+  <si>
+    <t>%NPF</t>
   </si>
 </sst>
 </file>
@@ -2500,7 +2514,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2705,6 +2718,763 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>สัดส่วนหนี้ที่ไม่ก่อให้เกิดรายได้</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%NPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.43587666032428102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48854868713976396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57454630863783174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25023773943757643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17474291982449144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19164805146119235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23790974373415938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22690152965350099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21422443834208538</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18215898440828152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-21D5-428D-BED1-7D0ABE163DA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1584786320"/>
+        <c:axId val="1584782960"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet4!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>หนี้ที่ไม่ก่อให้เกิดรายได้</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet4!$A$2:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2557</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2558</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2559</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2560</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2561</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2562</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2563</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2564</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2565</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2566</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet4!$B$2:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>47878</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>48060</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>53718</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11052</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0">
+                        <c:v>8761.61</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="0">
+                        <c:v>10408.49</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="0">
+                        <c:v>13517.08</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="0">
+                        <c:v>12920</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="0">
+                        <c:v>13339.97</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="0">
+                        <c:v>12828</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-21D5-428D-BED1-7D0ABE163DA5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet4!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>สินเชื่อรวมทั้งหมด</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet4!$A$2:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2557</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2558</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2559</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2560</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2561</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2562</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2563</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2564</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2565</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2566</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet4!$C$2:$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>109843</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>98373</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="0">
+                        <c:v>93496.38</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44166</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50140</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="0">
+                        <c:v>54310.44</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>56816</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>56941</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>62271</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>70422</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-21D5-428D-BED1-7D0ABE163DA5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1584786320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1584782960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1584782960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1584786320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2825,6 +3595,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -4357,6 +5167,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4636,6 +5962,47 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECCCF7A-B170-1116-04B4-1E96EDFA0219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4964,16 +6331,16 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4987,7 +6354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5005,7 +6372,7 @@
         <v>0.36985487825346863</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5023,7 +6390,7 @@
         <v>0.18604784424658383</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5041,7 +6408,7 @@
         <v>4.0621921733341525E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5059,7 +6426,7 @@
         <v>0.19258588937143462</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5077,7 +6444,7 @@
         <v>5.6907598461197896E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5095,7 +6462,7 @@
         <v>4.7877291531130392E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5113,7 +6480,7 @@
         <v>4.2429310323955499E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5131,7 +6498,7 @@
         <v>3.0943518765149435E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5149,7 +6516,7 @@
         <v>1.7491757413593045E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5167,7 +6534,7 @@
         <v>2.3388507153022424E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5185,7 +6552,7 @@
         <v>5.7887028927317175E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -5217,9 +6584,9 @@
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -5236,7 +6603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5253,7 +6620,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5270,7 +6637,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -5287,7 +6654,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5304,7 +6671,7 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -5321,7 +6688,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5338,7 +6705,7 @@
         <v>232.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -5355,7 +6722,7 @@
         <v>157.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -5372,7 +6739,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -5389,7 +6756,7 @@
         <v>149.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -5406,7 +6773,7 @@
         <v>183.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -5423,7 +6790,7 @@
         <v>111.6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -5440,7 +6807,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -5457,7 +6824,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -5474,7 +6841,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -5491,7 +6858,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5508,7 +6875,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5525,7 +6892,7 @@
         <v>133.30000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -5542,7 +6909,7 @@
         <v>150.19999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -5559,7 +6926,7 @@
         <v>147.1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -5576,7 +6943,7 @@
         <v>143.69999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -5593,7 +6960,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -5620,13 +6987,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44930ECF-C9D2-4E6D-8371-6CDC328EB7E6}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -5640,7 +7007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -5659,7 +7026,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -5678,7 +7045,7 @@
         <v>820.00000000000011</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -5697,7 +7064,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -5716,7 +7083,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5735,7 +7102,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -5754,7 +7121,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -5773,7 +7140,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5792,7 +7159,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5811,7 +7178,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5830,7 +7197,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5849,7 +7216,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5868,7 +7235,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5887,7 +7254,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5906,7 +7273,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5925,7 +7292,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5944,7 +7311,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5963,7 +7330,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -5982,7 +7349,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6001,7 +7368,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -6020,7 +7387,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -6039,7 +7406,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -6058,7 +7425,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6077,7 +7444,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6096,7 +7463,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6115,7 +7482,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -6134,7 +7501,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6153,7 +7520,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -6172,7 +7539,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -6191,7 +7558,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -6208,6 +7575,193 @@
       <c r="E31">
         <f t="shared" si="0"/>
         <v>950</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2205724C-5410-4869-A9FF-A8CBBDB11631}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2557</v>
+      </c>
+      <c r="B2">
+        <v>47878</v>
+      </c>
+      <c r="C2">
+        <v>109843</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2/C2</f>
+        <v>0.43587666032428102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2558</v>
+      </c>
+      <c r="B3">
+        <v>48060</v>
+      </c>
+      <c r="C3">
+        <v>98373</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D11" si="0">B3/C3</f>
+        <v>0.48854868713976396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2559</v>
+      </c>
+      <c r="B4">
+        <v>53718</v>
+      </c>
+      <c r="C4" s="4">
+        <v>93496.38</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57454630863783174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2560</v>
+      </c>
+      <c r="B5">
+        <v>11052</v>
+      </c>
+      <c r="C5">
+        <v>44166</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25023773943757643</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2561</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8761.61</v>
+      </c>
+      <c r="C6">
+        <v>50140</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17474291982449144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2562</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10408.49</v>
+      </c>
+      <c r="C7" s="4">
+        <v>54310.44</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19164805146119235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2563</v>
+      </c>
+      <c r="B8" s="4">
+        <v>13517.08</v>
+      </c>
+      <c r="C8">
+        <v>56816</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23790974373415938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2564</v>
+      </c>
+      <c r="B9" s="4">
+        <v>12920</v>
+      </c>
+      <c r="C9">
+        <v>56941</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.22690152965350099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2565</v>
+      </c>
+      <c r="B10" s="4">
+        <v>13339.97</v>
+      </c>
+      <c r="C10">
+        <v>62271</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21422443834208538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2566</v>
+      </c>
+      <c r="B11" s="4">
+        <v>12828</v>
+      </c>
+      <c r="C11">
+        <v>70422</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18215898440828152</v>
       </c>
     </row>
   </sheetData>

--- a/กราฟ.xlsx
+++ b/กราฟ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\เดสก์ท็อป\TU MBE\IS_MBE\IS_ปัจจัยที่มีอิทธิพลต่อการผิดนัดชำระ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0643ECDF-8A48-4A9A-A7FD-FA6E632D7D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18E8722-C27C-422C-AF48-69CABB6EE693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8A74C651-13DA-4C3C-9B6A-6D377C8A5538}"/>
   </bookViews>
@@ -2739,9 +2739,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2749,10 +2749,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="th-TH">
+              <a:rPr lang="th-TH" b="1">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
               </a:rPr>
               <a:t>สัดส่วนหนี้ที่ไม่ก่อให้เกิดรายได้</a:t>
             </a:r>
@@ -2761,9 +2763,7 @@
       </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="002060"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2774,9 +2774,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3135,7 +3135,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet4!$C$1</c15:sqref>
@@ -3176,7 +3176,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet4!$A$2:$A$11</c15:sqref>
@@ -3221,7 +3221,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet4!$C$2:$C$11</c15:sqref>
@@ -3265,7 +3265,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-21D5-428D-BED1-7D0ABE163DA5}"/>
                   </c:ext>
@@ -7588,7 +7588,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/กราฟ.xlsx
+++ b/กราฟ.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\เดสก์ท็อป\TU MBE\IS_MBE\IS_ปัจจัยที่มีอิทธิพลต่อการผิดนัดชำระ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18E8722-C27C-422C-AF48-69CABB6EE693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35998F02-B32F-4B8D-8E93-0D45D6C39AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8A74C651-13DA-4C3C-9B6A-6D377C8A5538}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{8A74C651-13DA-4C3C-9B6A-6D377C8A5538}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="bacckup" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="ibnknpl" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$2:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$G$2:$G$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Product Type</t>
   </si>
@@ -209,11 +212,35 @@
   <si>
     <t>%NPF</t>
   </si>
+  <si>
+    <t>สินเชื่อส่วนบุคคล</t>
+  </si>
+  <si>
+    <t>สินเชื่อประเภทอื่นๆ</t>
+  </si>
+  <si>
+    <t>ประเภทสินเชื่อ</t>
+  </si>
+  <si>
+    <t>สัดส่วนสินเชื่อ</t>
+  </si>
+  <si>
+    <t>ผลดำเนินงาน (ลบ.)</t>
+  </si>
+  <si>
+    <t>เงินให้สินเชื่อ (ลบ.)</t>
+  </si>
+  <si>
+    <t>สินทรัพย์ (ลบ.)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,11 +281,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -266,8 +294,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -285,6 +321,922 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:rPr>
+              <a:t>สัดส่วนหนี้ที่ไม่ก่อให้เกิดรายได้</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bacckup!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%NPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bacckup!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2557</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2562</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bacckup!$D$3:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5500000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8700000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7825000000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43587666032428102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48854868713976396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57454630863783174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25023773943757643</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17474291982449144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19164805146119235</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23790974373415938</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22690152965350099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21422443834208538</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18215898440828152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6E1-45C5-87CC-B3F850BF6CE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1584786320"/>
+        <c:axId val="1584782960"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>bacckup!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>หนี้ที่ไม่ก่อให้เกิดรายได้</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>bacckup!$A$10:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2557</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2558</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2559</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2560</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2561</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2562</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2563</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2564</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2565</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2566</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>bacckup!$B$10:$B$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>47878</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>48060</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>53718</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11052</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0">
+                        <c:v>8761.61</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="0">
+                        <c:v>10408.49</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="0">
+                        <c:v>13517.08</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="0">
+                        <c:v>12920</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="0">
+                        <c:v>13339.97</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="0">
+                        <c:v>12828</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-B6E1-45C5-87CC-B3F850BF6CE9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>bacckup!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>สินเชื่อรวมทั้งหมด</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>bacckup!$A$10:$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2557</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2558</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2559</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2560</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2561</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2562</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2563</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2564</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2565</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2566</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>bacckup!$C$10:$C$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>109843</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>98373</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="0">
+                        <c:v>93496.38</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>44166</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50140</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="0">
+                        <c:v>54310.44</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>56816</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>56941</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>62271</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>70422</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-B6E1-45C5-87CC-B3F850BF6CE9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1584786320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1584782960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1584782960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1584786320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -914,7 +1866,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1985,7 +2937,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2718,7 +3670,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2795,10 +3747,10 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$D$1</c:f>
+              <c:f>ibnknpl!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2891,38 +3843,62 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$A$2:$A$11</c:f>
+              <c:f>ibnknpl!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>2549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2557</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>2558</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>2559</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>2560</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>2561</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>2562</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>2563</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>2564</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>2565</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>2566</c:v>
                 </c:pt>
               </c:numCache>
@@ -2930,38 +3906,59 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$D$2:$D$11</c:f>
+              <c:f>ibnknpl!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5500000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8700000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.43587666032428102</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>0.48854868713976396</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>0.57454630863783174</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>0.25023773943757643</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>0.17474291982449144</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>0.19164805146119235</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>0.23790974373415938</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>0.22690152965350099</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>0.21422443834208538</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>0.18215898440828152</c:v>
                 </c:pt>
               </c:numCache>
@@ -2970,13 +3967,14 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-21D5-428D-BED1-7D0ABE163DA5}"/>
+              <c16:uniqueId val="{00000016-64A3-4465-A864-5DDD97035E6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2984,296 +3982,7 @@
         </c:dLbls>
         <c:axId val="1584786320"/>
         <c:axId val="1584782960"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet4!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>หนี้ที่ไม่ก่อให้เกิดรายได้</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet4!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>2557</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2558</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2559</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2560</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2561</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2562</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2563</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2564</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2565</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2566</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet4!$B$2:$B$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>47878</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>48060</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>53718</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11052</c:v>
-                      </c:pt>
-                      <c:pt idx="4" formatCode="0">
-                        <c:v>8761.61</c:v>
-                      </c:pt>
-                      <c:pt idx="5" formatCode="0">
-                        <c:v>10408.49</c:v>
-                      </c:pt>
-                      <c:pt idx="6" formatCode="0">
-                        <c:v>13517.08</c:v>
-                      </c:pt>
-                      <c:pt idx="7" formatCode="0">
-                        <c:v>12920</c:v>
-                      </c:pt>
-                      <c:pt idx="8" formatCode="0">
-                        <c:v>13339.97</c:v>
-                      </c:pt>
-                      <c:pt idx="9" formatCode="0">
-                        <c:v>12828</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-21D5-428D-BED1-7D0ABE163DA5}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet4!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>สินเชื่อรวมทั้งหมด</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet4!$A$2:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>2557</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2558</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2559</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2560</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2561</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2562</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2563</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2564</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2565</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2566</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet4!$C$2:$C$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>109843</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>98373</c:v>
-                      </c:pt>
-                      <c:pt idx="2" formatCode="0">
-                        <c:v>93496.38</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>44166</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50140</c:v>
-                      </c:pt>
-                      <c:pt idx="5" formatCode="0">
-                        <c:v>54310.44</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>56816</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>56941</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>62271</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>70422</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-21D5-428D-BED1-7D0ABE163DA5}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1584786320"/>
@@ -3297,7 +4006,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3314,7 +4023,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3358,8 +4067,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3440,6 +4149,972 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:rPr>
+              <a:t>สัดส่วนหนี้ที่ไม่ก่อให้เกิดรายได้ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:rPr>
+              <a:t>(NPL)</a:t>
+            </a:r>
+            <a:endParaRPr lang="th-TH" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ibnknpl!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%NPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4026284253696548E-2"/>
+                  <c:y val="-0.10876166520851568"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5F67-4D5C-BC51-7FD57AFA7B22}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7552588236144069E-2"/>
+                  <c:y val="7.1793890347039868E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5F67-4D5C-BC51-7FD57AFA7B22}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2257849032633578E-2"/>
+                  <c:y val="7.1793890347039868E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5F67-4D5C-BC51-7FD57AFA7B22}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2288696277823792E-2"/>
+                  <c:y val="6.2534631087780776E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5F67-4D5C-BC51-7FD57AFA7B22}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>ibnknpl!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2557</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2562</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ibnknpl!$D$3:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5500000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8700000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43587666032428102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48854868713976396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57454630863783174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25023773943757643</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17474291982449144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19164805146119235</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23790974373415938</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22690152965350099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21422443834208538</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18215898440828152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F67-4D5C-BC51-7FD57AFA7B22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1009386463"/>
+        <c:axId val="1009386943"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1009386463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2460000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1009386943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1009386943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1009386463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>สัดส่วนประเภทสินเชื่อ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>สัดส่วนสินเชื่อ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-7102-4951-81C0-AEB84D5CCF47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7102-4951-81C0-AEB84D5CCF47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9999999999999899E-2"/>
+                  <c:y val="-1.8518518518518604E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7102-4951-81C0-AEB84D5CCF47}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9444444444444448E-2"/>
+                  <c:y val="-9.2592592592592587E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7102-4951-81C0-AEB84D5CCF47}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>สินเชื่อส่วนบุคคล</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>สินเชื่อประเภทอื่นๆ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.83137485311398351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16862514688601649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7102-4951-81C0-AEB84D5CCF47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3635,8 +5310,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3663,8 +5458,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3693,7 +5488,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3744,13 +5539,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3761,25 +5549,18 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3814,7 +5595,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4135,6 +5916,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4155,7 +5947,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4212,7 +6004,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4264,9 +6056,11 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -4279,16 +6073,18 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4314,9 +6110,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4329,7 +6122,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4372,22 +6165,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4492,8 +6286,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4625,19 +6419,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5187,7 +6982,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5214,8 +7009,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5295,6 +7090,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5305,6 +7105,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5316,7 +7121,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5336,6 +7141,512 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5702,7 +8013,1085 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5325C7D-7F65-4D9C-86FB-C8B65D2E0878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5743,7 +9132,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5857,7 +9246,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5967,20 +9356,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5988,6 +9377,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECCCF7A-B170-1116-04B4-1E96EDFA0219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFCB568-0142-9718-EEC1-0C3038E90D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB99201-1178-C106-C31C-A2CC6B9B6B23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6324,6 +9790,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E44732-A7D3-4E79-B858-17A398DB8CF6}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2550</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2551</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2552</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2553</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.1900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2554</v>
+      </c>
+      <c r="D7" s="2">
+        <f>AVERAGE(D5:D6)</f>
+        <v>6.8700000000000011E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2555</v>
+      </c>
+      <c r="D8" s="2">
+        <f>AVERAGE(D4:D7)</f>
+        <v>8.7825000000000014E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2556</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2557</v>
+      </c>
+      <c r="B10">
+        <v>47878</v>
+      </c>
+      <c r="C10">
+        <v>109843</v>
+      </c>
+      <c r="D10" s="3">
+        <f>B10/C10</f>
+        <v>0.43587666032428102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2558</v>
+      </c>
+      <c r="B11">
+        <v>48060</v>
+      </c>
+      <c r="C11">
+        <v>98373</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:D19" si="0">B11/C11</f>
+        <v>0.48854868713976396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2559</v>
+      </c>
+      <c r="B12">
+        <v>53718</v>
+      </c>
+      <c r="C12" s="4">
+        <v>93496.38</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57454630863783174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2560</v>
+      </c>
+      <c r="B13">
+        <v>11052</v>
+      </c>
+      <c r="C13">
+        <v>44166</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25023773943757643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2561</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8761.61</v>
+      </c>
+      <c r="C14">
+        <v>50140</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17474291982449144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2562</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10408.49</v>
+      </c>
+      <c r="C15" s="4">
+        <v>54310.44</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19164805146119235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2563</v>
+      </c>
+      <c r="B16" s="4">
+        <v>13517.08</v>
+      </c>
+      <c r="C16">
+        <v>56816</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23790974373415938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2564</v>
+      </c>
+      <c r="B17" s="4">
+        <v>12920</v>
+      </c>
+      <c r="C17">
+        <v>56941</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.22690152965350099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2565</v>
+      </c>
+      <c r="B18" s="4">
+        <v>13339.97</v>
+      </c>
+      <c r="C18">
+        <v>62271</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21422443834208538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2566</v>
+      </c>
+      <c r="B19" s="4">
+        <v>12828</v>
+      </c>
+      <c r="C19">
+        <v>70422</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18215898440828152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634285CB-DC05-4827-B863-E97C60A49463}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -6576,12 +10292,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC349831-174A-49DC-9EE8-04643FC86291}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6983,11 +10699,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44930ECF-C9D2-4E6D-8371-6CDC328EB7E6}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -7583,12 +11299,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2205724C-5410-4869-A9FF-A8CBBDB11631}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7613,62 +11329,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2557</v>
-      </c>
-      <c r="B2">
-        <v>47878</v>
-      </c>
-      <c r="C2">
-        <v>109843</v>
-      </c>
-      <c r="D2" s="3">
-        <f>B2/C2</f>
-        <v>0.43587666032428102</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2558</v>
-      </c>
-      <c r="B3">
-        <v>48060</v>
-      </c>
-      <c r="C3">
-        <v>98373</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D11" si="0">B3/C3</f>
-        <v>0.48854868713976396</v>
+        <v>2550</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.182</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2559</v>
-      </c>
-      <c r="B4">
-        <v>53718</v>
-      </c>
-      <c r="C4" s="4">
-        <v>93496.38</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.57454630863783174</v>
+        <v>2551</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1452</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2560</v>
-      </c>
-      <c r="B5">
-        <v>11052</v>
-      </c>
-      <c r="C5">
-        <v>44166</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.25023773943757643</v>
+        <v>2552</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
@@ -7676,92 +11361,523 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2561</v>
-      </c>
-      <c r="B6" s="4">
-        <v>8761.61</v>
-      </c>
-      <c r="C6">
-        <v>50140</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.17474291982449144</v>
+        <v>2553</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.1900000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2562</v>
-      </c>
-      <c r="B7" s="4">
-        <v>10408.49</v>
-      </c>
-      <c r="C7" s="4">
-        <v>54310.44</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.19164805146119235</v>
+        <v>2554</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6.8700000000000011E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2563</v>
-      </c>
-      <c r="B8" s="4">
-        <v>13517.08</v>
-      </c>
-      <c r="C8">
-        <v>56816</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.23790974373415938</v>
+        <v>2555</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.25305</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2564</v>
-      </c>
-      <c r="B9" s="4">
-        <v>12920</v>
-      </c>
-      <c r="C9">
-        <v>56941</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.22690152965350099</v>
+        <v>2556</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2565</v>
-      </c>
-      <c r="B10" s="4">
-        <v>13339.97</v>
-      </c>
-      <c r="C10">
-        <v>62271</v>
+        <v>2557</v>
+      </c>
+      <c r="B10">
+        <v>47878</v>
+      </c>
+      <c r="C10" s="8">
+        <v>109843</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.21422443834208538</v>
+        <v>0.43587666032428102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>2558</v>
+      </c>
+      <c r="B11">
+        <v>48060</v>
+      </c>
+      <c r="C11" s="8">
+        <v>98373</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.48854868713976396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2559</v>
+      </c>
+      <c r="B12">
+        <v>53718</v>
+      </c>
+      <c r="C12" s="8">
+        <v>93496.38</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.57454630863783174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2560</v>
+      </c>
+      <c r="B13">
+        <v>11052</v>
+      </c>
+      <c r="C13" s="8">
+        <v>44166</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.25023773943757643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2561</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8761.61</v>
+      </c>
+      <c r="C14" s="8">
+        <v>50140</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.17474291982449144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2562</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10408.49</v>
+      </c>
+      <c r="C15" s="8">
+        <v>54310.44</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.19164805146119235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2563</v>
+      </c>
+      <c r="B16" s="4">
+        <v>13517.08</v>
+      </c>
+      <c r="C16" s="8">
+        <v>56816</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.23790974373415938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2564</v>
+      </c>
+      <c r="B17" s="4">
+        <v>12920</v>
+      </c>
+      <c r="C17" s="8">
+        <v>56941</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.22690152965350099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2565</v>
+      </c>
+      <c r="B18" s="4">
+        <v>13339.97</v>
+      </c>
+      <c r="C18" s="8">
+        <v>62271</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.21422443834208538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2566</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B19" s="4">
         <v>12828</v>
       </c>
-      <c r="C11">
+      <c r="C19" s="8">
         <v>70422</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
+      <c r="D19" s="3">
         <v>0.18215898440828152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909C8564-C53D-41F1-AAF4-273F21948F04}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B5:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>2547</v>
+      </c>
+      <c r="B2" s="8">
+        <v>-90.47</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1193.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2548</v>
+      </c>
+      <c r="B3" s="8">
+        <v>-158.08000000000001</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3829.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2549</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-269.45</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6903.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2550</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-286.18</v>
+      </c>
+      <c r="C5" s="8">
+        <v>10878.45</v>
+      </c>
+      <c r="D5" s="8">
+        <v>16785.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2551</v>
+      </c>
+      <c r="B6" s="8">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
+        <v>16700</v>
+      </c>
+      <c r="D6" s="8">
+        <v>23835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2552</v>
+      </c>
+      <c r="B7" s="8">
+        <v>355</v>
+      </c>
+      <c r="C7" s="8">
+        <v>37958</v>
+      </c>
+      <c r="D7" s="8">
+        <v>45342.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2553</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1250</v>
+      </c>
+      <c r="C8" s="10">
+        <v>86098</v>
+      </c>
+      <c r="D8" s="8">
+        <v>98067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2554</v>
+      </c>
+      <c r="B9" s="8">
+        <v>546.15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>114970</v>
+      </c>
+      <c r="D9" s="8">
+        <v>133358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>2555</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-13260.02</v>
+      </c>
+      <c r="C10" s="8">
+        <v>120051.98</v>
+      </c>
+      <c r="D10" s="8">
+        <v>124737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2556</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2688</v>
+      </c>
+      <c r="C11" s="9">
+        <v>109979.01</v>
+      </c>
+      <c r="D11" s="8">
+        <v>116721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2557</v>
+      </c>
+      <c r="B12" s="8">
+        <v>-9737.19</v>
+      </c>
+      <c r="C12" s="8">
+        <v>109843</v>
+      </c>
+      <c r="D12" s="8">
+        <v>110118.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2558</v>
+      </c>
+      <c r="B13" s="8">
+        <v>-4728.0600000000004</v>
+      </c>
+      <c r="C13" s="8">
+        <v>98373</v>
+      </c>
+      <c r="D13" s="8">
+        <v>91780.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>2559</v>
+      </c>
+      <c r="B14" s="8">
+        <v>-3410.18</v>
+      </c>
+      <c r="C14" s="8">
+        <v>93496.38</v>
+      </c>
+      <c r="D14" s="8">
+        <v>82063.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2560</v>
+      </c>
+      <c r="B15" s="8">
+        <v>-2889.2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>44166</v>
+      </c>
+      <c r="D15" s="8">
+        <v>72149.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2561</v>
+      </c>
+      <c r="B16" s="8">
+        <v>671.42</v>
+      </c>
+      <c r="C16" s="8">
+        <v>50140</v>
+      </c>
+      <c r="D16" s="8">
+        <v>81275.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>2562</v>
+      </c>
+      <c r="B17" s="8">
+        <v>766</v>
+      </c>
+      <c r="C17" s="8">
+        <v>54310.44</v>
+      </c>
+      <c r="D17" s="8">
+        <v>82183.929999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2563</v>
+      </c>
+      <c r="B18" s="8">
+        <v>-2380.17</v>
+      </c>
+      <c r="C18" s="8">
+        <v>56816</v>
+      </c>
+      <c r="D18" s="8">
+        <v>77546.490000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2564</v>
+      </c>
+      <c r="B19" s="8">
+        <v>358.43</v>
+      </c>
+      <c r="C19" s="8">
+        <v>56941</v>
+      </c>
+      <c r="D19" s="8">
+        <v>74454.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>2565</v>
+      </c>
+      <c r="B20" s="8">
+        <v>311.08999999999997</v>
+      </c>
+      <c r="C20" s="8">
+        <v>62271</v>
+      </c>
+      <c r="D20" s="8">
+        <v>77879.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2566</v>
+      </c>
+      <c r="B21" s="8">
+        <v>360.81</v>
+      </c>
+      <c r="C21" s="8">
+        <v>70422</v>
+      </c>
+      <c r="D21" s="8">
+        <v>81675.350000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4326455C-B41A-4808-A6E3-5D56D365E979}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.83137485311398351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.16862514688601649</v>
       </c>
     </row>
   </sheetData>

--- a/กราฟ.xlsx
+++ b/กราฟ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\เดสก์ท็อป\TU MBE\IS_MBE\IS_ปัจจัยที่มีอิทธิพลต่อการผิดนัดชำระ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35998F02-B32F-4B8D-8E93-0D45D6C39AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C98630-1E13-4A7C-AA38-C6A609BD1F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{8A74C651-13DA-4C3C-9B6A-6D377C8A5538}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8A74C651-13DA-4C3C-9B6A-6D377C8A5538}"/>
   </bookViews>
   <sheets>
     <sheet name="bacckup" sheetId="6" r:id="rId1"/>
@@ -4810,21 +4810,25 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="th-TH" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="th-TH"/>
+              <a:rPr lang="th-TH" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
+              </a:rPr>
               <a:t>สัดส่วนประเภทสินเชื่อ</a:t>
             </a:r>
           </a:p>
@@ -4842,17 +4846,14 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="th-TH" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -5090,16 +5091,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="TH SarabunPSK" panose="020B0500040200020003" pitchFamily="34" charset="-34"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -9437,16 +9438,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11541,7 +11542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909C8564-C53D-41F1-AAF4-273F21948F04}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B5:B21"/>
     </sheetView>
   </sheetViews>
@@ -11847,8 +11848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4326455C-B41A-4808-A6E3-5D56D365E979}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
